--- a/biology/Botanique/Piptostigma_fasciculatum/Piptostigma_fasciculatum.xlsx
+++ b/biology/Botanique/Piptostigma_fasciculatum/Piptostigma_fasciculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piptostigma fasciculatum est une espèce de plantes de la famille des Annonaceae et du genre Piptostigma, présente en Afrique tropicale.
 </t>
@@ -511,13 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1914 par le botaniste belge Émile De Wildeman.
-Synonymes
-Brieya fasciculata De Wild., 1914
-Brieya fasciculatum De Wild, 1914
-Piptostigma aubrevillei Ghesq. ex Aubrév.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1914 par le botaniste belge Émile De Wildeman.
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brieya fasciculata De Wild., 1914
+Brieya fasciculatum De Wild, 1914
+Piptostigma aubrevillei Ghesq. ex Aubrév.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,10 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,15 +619,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[1].
-</t>
-        </is>
-      </c>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,12 +647,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Piptostigma_fasciculatum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Piptostigma_fasciculatum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Piptostigma fasciculatum se rencontre de 200 à 1 326 m d'altitude[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piptostigma fasciculatum se rencontre de 200 à 1 326 m d'altitude.
 </t>
         </is>
       </c>
